--- a/data/PublicHealth_BP_Dataset.xlsx
+++ b/data/PublicHealth_BP_Dataset.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R studio\workshop\visualization\web_page\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330DE355-9946-45A9-9AA6-52ECD7C2CD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="43">
   <si>
     <t>PatientID</t>
   </si>
@@ -148,11 +154,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +222,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +274,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -294,6 +308,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,9 +343,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,14 +519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -619,13 +637,13 @@
         <v>89</v>
       </c>
       <c r="N2">
-        <v>36.52212270874143</v>
+        <v>36.522122708741428</v>
       </c>
       <c r="O2">
-        <v>78.01147114124907</v>
+        <v>78.011471141249075</v>
       </c>
       <c r="P2" s="2">
-        <v>45780.54628472222</v>
+        <v>45780.546284722222</v>
       </c>
       <c r="Q2">
         <v>122</v>
@@ -646,7 +664,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -690,10 +708,10 @@
         <v>12.080634313414</v>
       </c>
       <c r="O3">
-        <v>82.71494622281645</v>
+        <v>82.714946222816451</v>
       </c>
       <c r="P3" s="2">
-        <v>45762.44822916666</v>
+        <v>45762.448229166657</v>
       </c>
       <c r="Q3">
         <v>128</v>
@@ -714,7 +732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -758,10 +776,10 @@
         <v>13.85845438367221</v>
       </c>
       <c r="O4">
-        <v>93.3524532158701</v>
+        <v>93.352453215870099</v>
       </c>
       <c r="P4" s="2">
-        <v>45822.30886574074</v>
+        <v>45822.308865740742</v>
       </c>
       <c r="Q4">
         <v>158</v>
@@ -782,7 +800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -826,10 +844,10 @@
         <v>13.34252033790276</v>
       </c>
       <c r="O5">
-        <v>82.31285082986344</v>
+        <v>82.312850829863436</v>
       </c>
       <c r="P5" s="2">
-        <v>45690.42413194444</v>
+        <v>45690.424131944441</v>
       </c>
       <c r="Q5">
         <v>115</v>
@@ -850,7 +868,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -891,13 +909,13 @@
         <v>172</v>
       </c>
       <c r="N6">
-        <v>33.92570159022824</v>
+        <v>33.925701590228243</v>
       </c>
       <c r="O6">
-        <v>88.36550421491826</v>
+        <v>88.365504214918261</v>
       </c>
       <c r="P6" s="2">
-        <v>45764.44520833333</v>
+        <v>45764.445208333331</v>
       </c>
       <c r="Q6">
         <v>157</v>
@@ -918,7 +936,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -962,10 +980,10 @@
         <v>26.97448401742389</v>
       </c>
       <c r="O7">
-        <v>96.79168833097305</v>
+        <v>96.791688330973045</v>
       </c>
       <c r="P7" s="2">
-        <v>45807.4569675926</v>
+        <v>45807.456967592603</v>
       </c>
       <c r="Q7">
         <v>121</v>
@@ -986,7 +1004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1027,13 +1045,13 @@
         <v>73</v>
       </c>
       <c r="N8">
-        <v>12.41102421344591</v>
+        <v>12.411024213445909</v>
       </c>
       <c r="O8">
         <v>71.81318447704146</v>
       </c>
       <c r="P8" s="2">
-        <v>45829.3163425926</v>
+        <v>45829.316342592603</v>
       </c>
       <c r="Q8">
         <v>146</v>
@@ -1054,7 +1072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>126</v>
       </c>
       <c r="N9">
-        <v>20.76937913268212</v>
+        <v>20.769379132682118</v>
       </c>
       <c r="O9">
         <v>75.96721424006607</v>
@@ -1122,7 +1140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1166,10 +1184,10 @@
         <v>25.84364272702426</v>
       </c>
       <c r="O10">
-        <v>79.44270619233174</v>
+        <v>79.442706192331741</v>
       </c>
       <c r="P10" s="2">
-        <v>45796.34571759259</v>
+        <v>45796.345717592587</v>
       </c>
       <c r="Q10">
         <v>132</v>
@@ -1190,7 +1208,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1231,13 +1249,13 @@
         <v>86</v>
       </c>
       <c r="N11">
-        <v>10.42045846469212</v>
+        <v>10.420458464692119</v>
       </c>
       <c r="O11">
         <v>80.23301717762611</v>
       </c>
       <c r="P11" s="2">
-        <v>45737.16422453704</v>
+        <v>45737.164224537039</v>
       </c>
       <c r="Q11">
         <v>135</v>
@@ -1258,7 +1276,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1299,13 +1317,13 @@
         <v>188</v>
       </c>
       <c r="N12">
-        <v>33.59007468381282</v>
+        <v>33.590074683812823</v>
       </c>
       <c r="O12">
-        <v>79.91961118270083</v>
+        <v>79.919611182700834</v>
       </c>
       <c r="P12" s="2">
-        <v>45757.19625</v>
+        <v>45757.196250000001</v>
       </c>
       <c r="Q12">
         <v>138</v>
@@ -1326,7 +1344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1349,7 +1367,7 @@
         <v>35</v>
       </c>
       <c r="H13">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
@@ -1367,13 +1385,13 @@
         <v>140</v>
       </c>
       <c r="N13">
-        <v>31.30450252780452</v>
+        <v>31.304502527804519</v>
       </c>
       <c r="O13">
-        <v>94.3207190741401</v>
+        <v>94.320719074140101</v>
       </c>
       <c r="P13" s="2">
-        <v>45687.89368055556</v>
+        <v>45687.893680555557</v>
       </c>
       <c r="Q13">
         <v>142</v>
@@ -1394,7 +1412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1422,9 +1440,6 @@
       <c r="I14" t="s">
         <v>38</v>
       </c>
-      <c r="J14" t="s">
-        <v>41</v>
-      </c>
       <c r="K14" t="s">
         <v>35</v>
       </c>
@@ -1435,13 +1450,13 @@
         <v>73</v>
       </c>
       <c r="N14">
-        <v>22.65099643372251</v>
+        <v>22.650996433722511</v>
       </c>
       <c r="O14">
-        <v>88.70694668953884</v>
+        <v>88.706946689538839</v>
       </c>
       <c r="P14" s="2">
-        <v>45835.01914351852</v>
+        <v>45835.019143518519</v>
       </c>
       <c r="Q14">
         <v>136</v>
@@ -1462,7 +1477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1485,7 +1500,7 @@
         <v>34</v>
       </c>
       <c r="H15">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
@@ -1503,13 +1518,13 @@
         <v>83</v>
       </c>
       <c r="N15">
-        <v>36.04667184251594</v>
+        <v>36.046671842515941</v>
       </c>
       <c r="O15">
-        <v>85.62925120863041</v>
+        <v>85.629251208630407</v>
       </c>
       <c r="P15" s="2">
-        <v>45831.54313657407</v>
+        <v>45831.543136574073</v>
       </c>
       <c r="Q15">
         <v>134</v>
@@ -1530,7 +1545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1574,10 +1589,10 @@
         <v>20.11506839897789</v>
       </c>
       <c r="O16">
-        <v>76.97180881802068</v>
+        <v>76.971808818020676</v>
       </c>
       <c r="P16" s="2">
-        <v>45701.62797453703</v>
+        <v>45701.627974537027</v>
       </c>
       <c r="Q16">
         <v>119</v>
@@ -1598,7 +1613,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1639,10 +1654,10 @@
         <v>149</v>
       </c>
       <c r="N17">
-        <v>36.53919925205844</v>
+        <v>36.539199252058438</v>
       </c>
       <c r="O17">
-        <v>91.88992114241755</v>
+        <v>91.889921142417549</v>
       </c>
       <c r="P17" s="2">
         <v>45671.96702546296</v>
@@ -1666,7 +1681,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1707,13 +1722,13 @@
         <v>124</v>
       </c>
       <c r="N18">
-        <v>27.36967996530518</v>
+        <v>27.369679965305181</v>
       </c>
       <c r="O18">
-        <v>95.69675483306469</v>
+        <v>95.696754833064688</v>
       </c>
       <c r="P18" s="2">
-        <v>45830.80024305556</v>
+        <v>45830.800243055557</v>
       </c>
       <c r="Q18">
         <v>132</v>
@@ -1734,7 +1749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1762,9 +1777,6 @@
       <c r="I19" t="s">
         <v>38</v>
       </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
       <c r="K19" t="s">
         <v>35</v>
       </c>
@@ -1775,13 +1787,13 @@
         <v>189</v>
       </c>
       <c r="N19">
-        <v>26.4054669243643</v>
+        <v>26.405466924364301</v>
       </c>
       <c r="O19">
         <v>91.81475019395657</v>
       </c>
       <c r="P19" s="2">
-        <v>45669.03810185185</v>
+        <v>45669.038101851853</v>
       </c>
       <c r="Q19">
         <v>130</v>
@@ -1802,7 +1814,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1846,10 +1858,10 @@
         <v>12.81269196357777</v>
       </c>
       <c r="O20">
-        <v>68.04538805055272</v>
+        <v>68.045388050552717</v>
       </c>
       <c r="P20" s="2">
-        <v>45817.35653935185</v>
+        <v>45817.356539351851</v>
       </c>
       <c r="Q20">
         <v>130</v>
@@ -1870,7 +1882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1911,13 +1923,13 @@
         <v>151</v>
       </c>
       <c r="N21">
-        <v>33.57590499083467</v>
+        <v>33.575904990834673</v>
       </c>
       <c r="O21">
-        <v>86.45563973531881</v>
+        <v>86.455639735318812</v>
       </c>
       <c r="P21" s="2">
-        <v>45660.52048611111</v>
+        <v>45660.520486111112</v>
       </c>
       <c r="Q21">
         <v>152</v>
@@ -1938,7 +1950,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1982,10 +1994,10 @@
         <v>20.39720094969784</v>
       </c>
       <c r="O22">
-        <v>69.48292606182092</v>
+        <v>69.482926061820919</v>
       </c>
       <c r="P22" s="2">
-        <v>45705.45261574074</v>
+        <v>45705.452615740738</v>
       </c>
       <c r="Q22">
         <v>122</v>
@@ -2006,7 +2018,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2029,7 +2041,7 @@
         <v>35</v>
       </c>
       <c r="H23">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
@@ -2047,13 +2059,13 @@
         <v>118</v>
       </c>
       <c r="N23">
-        <v>12.7047687676919</v>
+        <v>12.704768767691901</v>
       </c>
       <c r="O23">
-        <v>75.47060938967793</v>
+        <v>75.470609389677932</v>
       </c>
       <c r="P23" s="2">
-        <v>45713.98283564814</v>
+        <v>45713.982835648138</v>
       </c>
       <c r="Q23">
         <v>146</v>
@@ -2074,7 +2086,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2118,10 +2130,10 @@
         <v>8.365618079297013</v>
       </c>
       <c r="O24">
-        <v>69.72621631008538</v>
+        <v>69.726216310085377</v>
       </c>
       <c r="P24" s="2">
-        <v>45738.66121527777</v>
+        <v>45738.661215277767</v>
       </c>
       <c r="Q24">
         <v>142</v>
@@ -2142,7 +2154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2183,13 +2195,13 @@
         <v>179</v>
       </c>
       <c r="N25">
-        <v>24.2329148255131</v>
+        <v>24.232914825513099</v>
       </c>
       <c r="O25">
-        <v>85.51006813553224</v>
+        <v>85.510068135532237</v>
       </c>
       <c r="P25" s="2">
-        <v>45783.29922453704</v>
+        <v>45783.299224537041</v>
       </c>
       <c r="Q25">
         <v>133</v>
@@ -2210,7 +2222,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2251,13 +2263,13 @@
         <v>178</v>
       </c>
       <c r="N26">
-        <v>23.29458904155761</v>
+        <v>23.294589041557611</v>
       </c>
       <c r="O26">
-        <v>87.91110749128561</v>
+        <v>87.911107491285605</v>
       </c>
       <c r="P26" s="2">
-        <v>45819.39795138889</v>
+        <v>45819.397951388892</v>
       </c>
       <c r="Q26">
         <v>153</v>
@@ -2278,7 +2290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2319,13 +2331,13 @@
         <v>145</v>
       </c>
       <c r="N27">
-        <v>28.8612550487056</v>
+        <v>28.861255048705601</v>
       </c>
       <c r="O27">
-        <v>71.32014150391124</v>
+        <v>71.320141503911245</v>
       </c>
       <c r="P27" s="2">
-        <v>45826.59494212963</v>
+        <v>45826.594942129632</v>
       </c>
       <c r="Q27">
         <v>120</v>
@@ -2346,7 +2358,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2387,13 +2399,13 @@
         <v>99</v>
       </c>
       <c r="N28">
-        <v>33.81748353751627</v>
+        <v>33.817483537516267</v>
       </c>
       <c r="O28">
-        <v>79.1313276083044</v>
+        <v>79.131327608304403</v>
       </c>
       <c r="P28" s="2">
-        <v>45726.40490740741</v>
+        <v>45726.404907407406</v>
       </c>
       <c r="Q28">
         <v>126</v>
@@ -2414,7 +2426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2455,13 +2467,13 @@
         <v>127</v>
       </c>
       <c r="N29">
-        <v>10.30279095464786</v>
+        <v>10.302790954647859</v>
       </c>
       <c r="O29">
-        <v>81.23085875971071</v>
+        <v>81.230858759710713</v>
       </c>
       <c r="P29" s="2">
-        <v>45728.39582175926</v>
+        <v>45728.395821759259</v>
       </c>
       <c r="Q29">
         <v>113</v>
@@ -2482,7 +2494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2523,13 +2535,13 @@
         <v>186</v>
       </c>
       <c r="N30">
-        <v>29.21339821987051</v>
+        <v>29.213398219870509</v>
       </c>
       <c r="O30">
-        <v>78.70253763106658</v>
+        <v>78.702537631066576</v>
       </c>
       <c r="P30" s="2">
-        <v>45786.37372685185</v>
+        <v>45786.373726851853</v>
       </c>
       <c r="Q30">
         <v>156</v>
@@ -2550,7 +2562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2594,10 +2606,10 @@
         <v>13.43494637882988</v>
       </c>
       <c r="O31">
-        <v>71.5097250140706</v>
+        <v>71.509725014070597</v>
       </c>
       <c r="P31" s="2">
-        <v>45719.36033564815</v>
+        <v>45719.360335648147</v>
       </c>
       <c r="Q31">
         <v>134</v>
@@ -2618,7 +2630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2659,13 +2671,13 @@
         <v>88</v>
       </c>
       <c r="N32">
-        <v>32.88713454155776</v>
+        <v>32.887134541557757</v>
       </c>
       <c r="O32">
-        <v>80.14948591543678</v>
+        <v>80.149485915436784</v>
       </c>
       <c r="P32" s="2">
-        <v>45678.71768518518</v>
+        <v>45678.717685185176</v>
       </c>
       <c r="Q32">
         <v>139</v>
@@ -2686,7 +2698,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2727,13 +2739,13 @@
         <v>163</v>
       </c>
       <c r="N33">
-        <v>31.75284190198803</v>
+        <v>31.752841901988031</v>
       </c>
       <c r="O33">
-        <v>89.78416338644412</v>
+        <v>89.784163386444121</v>
       </c>
       <c r="P33" s="2">
-        <v>45679.14033564815</v>
+        <v>45679.140335648153</v>
       </c>
       <c r="Q33">
         <v>118</v>
@@ -2754,7 +2766,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2798,10 +2810,10 @@
         <v>23.68301889458079</v>
       </c>
       <c r="O34">
-        <v>70.05922227146441</v>
+        <v>70.059222271464407</v>
       </c>
       <c r="P34" s="2">
-        <v>45710.23460648148</v>
+        <v>45710.234606481477</v>
       </c>
       <c r="Q34">
         <v>130</v>
@@ -2822,7 +2834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2863,13 +2875,13 @@
         <v>132</v>
       </c>
       <c r="N35">
-        <v>28.59704116007604</v>
+        <v>28.597041160076039</v>
       </c>
       <c r="O35">
-        <v>70.3252204083752</v>
+        <v>70.325220408375202</v>
       </c>
       <c r="P35" s="2">
-        <v>45770.58261574074</v>
+        <v>45770.582615740743</v>
       </c>
       <c r="Q35">
         <v>129</v>
@@ -2890,7 +2902,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2934,10 +2946,10 @@
         <v>17.1161532823287</v>
       </c>
       <c r="O36">
-        <v>78.28836746324355</v>
+        <v>78.288367463243546</v>
       </c>
       <c r="P36" s="2">
-        <v>45743.85502314815</v>
+        <v>45743.855023148149</v>
       </c>
       <c r="Q36">
         <v>128</v>
@@ -2958,7 +2970,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2999,13 +3011,13 @@
         <v>182</v>
       </c>
       <c r="N37">
-        <v>21.66386906905162</v>
+        <v>21.663869069051621</v>
       </c>
       <c r="O37">
-        <v>95.31004563694883</v>
+        <v>95.310045636948828</v>
       </c>
       <c r="P37" s="2">
-        <v>45729.19834490741</v>
+        <v>45729.198344907411</v>
       </c>
       <c r="Q37">
         <v>128</v>
@@ -3026,7 +3038,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3067,13 +3079,13 @@
         <v>116</v>
       </c>
       <c r="N38">
-        <v>31.82747003360368</v>
+        <v>31.827470033603682</v>
       </c>
       <c r="O38">
-        <v>87.38860675496451</v>
+        <v>87.388606754964513</v>
       </c>
       <c r="P38" s="2">
-        <v>45709.70082175926</v>
+        <v>45709.700821759259</v>
       </c>
       <c r="Q38">
         <v>121</v>
@@ -3094,7 +3106,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3135,13 +3147,13 @@
         <v>126</v>
       </c>
       <c r="N39">
-        <v>21.31869071802321</v>
+        <v>21.318690718023209</v>
       </c>
       <c r="O39">
-        <v>87.68142874350438</v>
+        <v>87.681428743504384</v>
       </c>
       <c r="P39" s="2">
-        <v>45780.34399305555</v>
+        <v>45780.343993055547</v>
       </c>
       <c r="Q39">
         <v>146</v>
@@ -3162,7 +3174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3206,10 +3218,10 @@
         <v>18.37614969443781</v>
       </c>
       <c r="O40">
-        <v>78.49567973429808</v>
+        <v>78.495679734298079</v>
       </c>
       <c r="P40" s="2">
-        <v>45675.11537037037</v>
+        <v>45675.115370370368</v>
       </c>
       <c r="Q40">
         <v>151</v>
@@ -3230,7 +3242,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3271,13 +3283,13 @@
         <v>114</v>
       </c>
       <c r="N41">
-        <v>22.3321609702587</v>
+        <v>22.332160970258698</v>
       </c>
       <c r="O41">
-        <v>85.21616294504761</v>
+        <v>85.216162945047614</v>
       </c>
       <c r="P41" s="2">
-        <v>45740.05414351852</v>
+        <v>45740.054143518522</v>
       </c>
       <c r="Q41">
         <v>126</v>
@@ -3298,7 +3310,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3339,13 +3351,13 @@
         <v>73</v>
       </c>
       <c r="N42">
-        <v>32.01922832067933</v>
+        <v>32.019228320679332</v>
       </c>
       <c r="O42">
-        <v>68.29380433680456</v>
+        <v>68.293804336804556</v>
       </c>
       <c r="P42" s="2">
-        <v>45773.20626157407</v>
+        <v>45773.206261574072</v>
       </c>
       <c r="Q42">
         <v>146</v>
@@ -3366,7 +3378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3407,13 +3419,13 @@
         <v>116</v>
       </c>
       <c r="N43">
-        <v>17.72103337375531</v>
+        <v>17.721033373755311</v>
       </c>
       <c r="O43">
-        <v>86.44678534587672</v>
+        <v>86.446785345876719</v>
       </c>
       <c r="P43" s="2">
-        <v>45787.07414351852</v>
+        <v>45787.074143518519</v>
       </c>
       <c r="Q43">
         <v>157</v>
@@ -3434,7 +3446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3478,10 +3490,10 @@
         <v>13.03908620093657</v>
       </c>
       <c r="O44">
-        <v>94.48532147971086</v>
+        <v>94.485321479710862</v>
       </c>
       <c r="P44" s="2">
-        <v>45717.31335648148</v>
+        <v>45717.313356481478</v>
       </c>
       <c r="Q44">
         <v>148</v>
@@ -3502,7 +3514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3543,13 +3555,13 @@
         <v>147</v>
       </c>
       <c r="N45">
-        <v>28.64840658959264</v>
+        <v>28.648406589592639</v>
       </c>
       <c r="O45">
-        <v>85.76463058199975</v>
+        <v>85.764630581999754</v>
       </c>
       <c r="P45" s="2">
-        <v>45831.71333333333</v>
+        <v>45831.713333333333</v>
       </c>
       <c r="Q45">
         <v>137</v>
@@ -3570,7 +3582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3611,13 +3623,13 @@
         <v>193</v>
       </c>
       <c r="N46">
-        <v>31.95336816853437</v>
+        <v>31.953368168534372</v>
       </c>
       <c r="O46">
         <v>93.33725921052401</v>
       </c>
       <c r="P46" s="2">
-        <v>45754.37077546296</v>
+        <v>45754.370775462958</v>
       </c>
       <c r="Q46">
         <v>150</v>
@@ -3638,7 +3650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3682,10 +3694,10 @@
         <v>10.91848687718247</v>
       </c>
       <c r="O47">
-        <v>88.99521860851672</v>
+        <v>88.995218608516723</v>
       </c>
       <c r="P47" s="2">
-        <v>45763.05509259259</v>
+        <v>45763.055092592593</v>
       </c>
       <c r="Q47">
         <v>144</v>
@@ -3706,7 +3718,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3750,10 +3762,10 @@
         <v>14.9563492699224</v>
       </c>
       <c r="O48">
-        <v>71.49619407570702</v>
+        <v>71.496194075707024</v>
       </c>
       <c r="P48" s="2">
-        <v>45662.66412037037</v>
+        <v>45662.664120370369</v>
       </c>
       <c r="Q48">
         <v>156</v>
@@ -3774,7 +3786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3818,10 +3830,10 @@
         <v>12.11718770306882</v>
       </c>
       <c r="O49">
-        <v>94.17114591128941</v>
+        <v>94.171145911289415</v>
       </c>
       <c r="P49" s="2">
-        <v>45767.10814814815</v>
+        <v>45767.108148148152</v>
       </c>
       <c r="Q49">
         <v>157</v>
@@ -3842,7 +3854,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3886,10 +3898,10 @@
         <v>18.09030093588283</v>
       </c>
       <c r="O50">
-        <v>69.92687148631747</v>
+        <v>69.926871486317467</v>
       </c>
       <c r="P50" s="2">
-        <v>45788.40460648148</v>
+        <v>45788.404606481483</v>
       </c>
       <c r="Q50">
         <v>127</v>
@@ -3910,7 +3922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3951,13 +3963,13 @@
         <v>130</v>
       </c>
       <c r="N51">
-        <v>21.06017838825696</v>
+        <v>21.060178388256961</v>
       </c>
       <c r="O51">
-        <v>83.48505670388515</v>
+        <v>83.485056703885149</v>
       </c>
       <c r="P51" s="2">
-        <v>45768.61967592593</v>
+        <v>45768.619675925933</v>
       </c>
       <c r="Q51">
         <v>123</v>
@@ -3978,7 +3990,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4022,10 +4034,10 @@
         <v>29.71596377193589</v>
       </c>
       <c r="O52">
-        <v>72.12197659001028</v>
+        <v>72.121976590010277</v>
       </c>
       <c r="P52" s="2">
-        <v>45745.46828703704</v>
+        <v>45745.468287037038</v>
       </c>
       <c r="Q52">
         <v>144</v>
@@ -4046,7 +4058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4087,13 +4099,13 @@
         <v>72</v>
       </c>
       <c r="N53">
-        <v>26.88327996156855</v>
+        <v>26.883279961568551</v>
       </c>
       <c r="O53">
-        <v>68.33949171119622</v>
+        <v>68.339491711196217</v>
       </c>
       <c r="P53" s="2">
-        <v>45828.40267361111</v>
+        <v>45828.402673611112</v>
       </c>
       <c r="Q53">
         <v>153</v>
@@ -4114,7 +4126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4155,13 +4167,13 @@
         <v>176</v>
       </c>
       <c r="N54">
-        <v>26.0069284568745</v>
+        <v>26.006928456874501</v>
       </c>
       <c r="O54">
-        <v>80.23899354370153</v>
+        <v>80.238993543701525</v>
       </c>
       <c r="P54" s="2">
-        <v>45831.85045138889</v>
+        <v>45831.850451388891</v>
       </c>
       <c r="Q54">
         <v>150</v>
@@ -4182,7 +4194,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4223,13 +4235,13 @@
         <v>182</v>
       </c>
       <c r="N55">
-        <v>18.21887345167998</v>
+        <v>18.218873451679979</v>
       </c>
       <c r="O55">
-        <v>76.55618052197053</v>
+        <v>76.556180521970532</v>
       </c>
       <c r="P55" s="2">
-        <v>45821.93337962963</v>
+        <v>45821.933379629627</v>
       </c>
       <c r="Q55">
         <v>116</v>
@@ -4250,7 +4262,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4291,13 +4303,13 @@
         <v>163</v>
       </c>
       <c r="N56">
-        <v>32.40197903945804</v>
+        <v>32.401979039458041</v>
       </c>
       <c r="O56">
-        <v>82.09401432013048</v>
+        <v>82.094014320130483</v>
       </c>
       <c r="P56" s="2">
-        <v>45738.23920138889</v>
+        <v>45738.239201388889</v>
       </c>
       <c r="Q56">
         <v>150</v>
@@ -4318,7 +4330,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4362,10 +4374,10 @@
         <v>21.66732785454677</v>
       </c>
       <c r="O57">
-        <v>84.73879671530197</v>
+        <v>84.738796715301973</v>
       </c>
       <c r="P57" s="2">
-        <v>45771.86221064815</v>
+        <v>45771.862210648149</v>
       </c>
       <c r="Q57">
         <v>122</v>
@@ -4386,7 +4398,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4427,13 +4439,13 @@
         <v>150</v>
       </c>
       <c r="N58">
-        <v>36.39404320243948</v>
+        <v>36.394043202439477</v>
       </c>
       <c r="O58">
         <v>69.26843309695947</v>
       </c>
       <c r="P58" s="2">
-        <v>45687.3000925926</v>
+        <v>45687.300092592603</v>
       </c>
       <c r="Q58">
         <v>127</v>
@@ -4454,7 +4466,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4498,10 +4510,10 @@
         <v>26.39012201057637</v>
       </c>
       <c r="O59">
-        <v>71.56709555858862</v>
+        <v>71.567095558588619</v>
       </c>
       <c r="P59" s="2">
-        <v>45682.4044212963</v>
+        <v>45682.404421296298</v>
       </c>
       <c r="Q59">
         <v>146</v>
@@ -4522,7 +4534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4566,10 +4578,10 @@
         <v>11.66167750537058</v>
       </c>
       <c r="O60">
-        <v>84.20062949706234</v>
+        <v>84.200629497062337</v>
       </c>
       <c r="P60" s="2">
-        <v>45738.12148148148</v>
+        <v>45738.121481481481</v>
       </c>
       <c r="Q60">
         <v>122</v>
@@ -4590,7 +4602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4631,13 +4643,13 @@
         <v>104</v>
       </c>
       <c r="N61">
-        <v>27.60914930018759</v>
+        <v>27.609149300187589</v>
       </c>
       <c r="O61">
         <v>77.95185324200709</v>
       </c>
       <c r="P61" s="2">
-        <v>45765.94262731481</v>
+        <v>45765.942627314813</v>
       </c>
       <c r="Q61">
         <v>145</v>
@@ -4658,7 +4670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4681,7 +4693,7 @@
         <v>34</v>
       </c>
       <c r="H62">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="I62" t="s">
         <v>36</v>
@@ -4699,13 +4711,13 @@
         <v>115</v>
       </c>
       <c r="N62">
-        <v>17.42801644751927</v>
+        <v>17.428016447519269</v>
       </c>
       <c r="O62">
-        <v>89.14603113893399</v>
+        <v>89.146031138933992</v>
       </c>
       <c r="P62" s="2">
-        <v>45698.53965277778</v>
+        <v>45698.539652777778</v>
       </c>
       <c r="Q62">
         <v>140</v>
@@ -4726,7 +4738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4770,10 +4782,10 @@
         <v>27.90348870389683</v>
       </c>
       <c r="O63">
-        <v>86.91645780916625</v>
+        <v>86.916457809166246</v>
       </c>
       <c r="P63" s="2">
-        <v>45674.0496412037</v>
+        <v>45674.049641203703</v>
       </c>
       <c r="Q63">
         <v>111</v>
@@ -4794,7 +4806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>10.01959329670977</v>
       </c>
       <c r="O64">
-        <v>92.5225265267073</v>
+        <v>92.522526526707296</v>
       </c>
       <c r="P64" s="2">
         <v>45799.25849537037</v>
@@ -4862,7 +4874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4903,13 +4915,13 @@
         <v>133</v>
       </c>
       <c r="N65">
-        <v>13.07156167810282</v>
+        <v>13.071561678102819</v>
       </c>
       <c r="O65">
-        <v>88.08229197340754</v>
+        <v>88.082291973407536</v>
       </c>
       <c r="P65" s="2">
-        <v>45790.58785879629</v>
+        <v>45790.587858796287</v>
       </c>
       <c r="Q65">
         <v>118</v>
@@ -4930,7 +4942,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4971,13 +4983,13 @@
         <v>118</v>
       </c>
       <c r="N66">
-        <v>32.81638050826781</v>
+        <v>32.816380508267812</v>
       </c>
       <c r="O66">
-        <v>80.46800124431429</v>
+        <v>80.468001244314294</v>
       </c>
       <c r="P66" s="2">
-        <v>45690.94247685185</v>
+        <v>45690.942476851851</v>
       </c>
       <c r="Q66">
         <v>118</v>
@@ -4998,7 +5010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5042,10 +5054,10 @@
         <v>14.58820715368193</v>
       </c>
       <c r="O67">
-        <v>87.51603204943854</v>
+        <v>87.516032049438536</v>
       </c>
       <c r="P67" s="2">
-        <v>45819.69787037037</v>
+        <v>45819.697870370372</v>
       </c>
       <c r="Q67">
         <v>147</v>
@@ -5066,7 +5078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5107,13 +5119,13 @@
         <v>74</v>
       </c>
       <c r="N68">
-        <v>32.27419263204526</v>
+        <v>32.274192632045263</v>
       </c>
       <c r="O68">
-        <v>75.98605405340714</v>
+        <v>75.986054053407145</v>
       </c>
       <c r="P68" s="2">
-        <v>45682.51890046296</v>
+        <v>45682.518900462957</v>
       </c>
       <c r="Q68">
         <v>120</v>
@@ -5134,7 +5146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5175,10 +5187,10 @@
         <v>169</v>
       </c>
       <c r="N69">
-        <v>16.0990065651779</v>
+        <v>16.099006565177898</v>
       </c>
       <c r="O69">
-        <v>76.88309146456817</v>
+        <v>76.883091464568167</v>
       </c>
       <c r="P69" s="2">
         <v>45828.53533564815</v>
@@ -5202,7 +5214,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5246,10 +5258,10 @@
         <v>26.64357539170252</v>
       </c>
       <c r="O70">
-        <v>90.880569637703</v>
+        <v>90.880569637703005</v>
       </c>
       <c r="P70" s="2">
-        <v>45806.66903935185</v>
+        <v>45806.669039351851</v>
       </c>
       <c r="Q70">
         <v>142</v>
@@ -5270,7 +5282,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5311,13 +5323,13 @@
         <v>159</v>
       </c>
       <c r="N71">
-        <v>28.1303666317851</v>
+        <v>28.130366631785101</v>
       </c>
       <c r="O71">
-        <v>80.94616597564588</v>
+        <v>80.946165975645883</v>
       </c>
       <c r="P71" s="2">
-        <v>45722.27702546296</v>
+        <v>45722.277025462958</v>
       </c>
       <c r="Q71">
         <v>145</v>
@@ -5338,7 +5350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5379,13 +5391,13 @@
         <v>73</v>
       </c>
       <c r="N72">
-        <v>22.86698784120654</v>
+        <v>22.866987841206541</v>
       </c>
       <c r="O72">
-        <v>91.15302987503222</v>
+        <v>91.153029875032217</v>
       </c>
       <c r="P72" s="2">
-        <v>45700.57663194444</v>
+        <v>45700.576631944437</v>
       </c>
       <c r="Q72">
         <v>154</v>
@@ -5406,7 +5418,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5447,13 +5459,13 @@
         <v>195</v>
       </c>
       <c r="N73">
-        <v>16.85400962420521</v>
+        <v>16.854009624205212</v>
       </c>
       <c r="O73">
-        <v>91.85024883638008</v>
+        <v>91.850248836380075</v>
       </c>
       <c r="P73" s="2">
-        <v>45710.74034722222</v>
+        <v>45710.740347222221</v>
       </c>
       <c r="Q73">
         <v>132</v>
@@ -5474,7 +5486,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5518,10 +5530,10 @@
         <v>14.16668691476179</v>
       </c>
       <c r="O74">
-        <v>92.86930779217722</v>
+        <v>92.869307792177224</v>
       </c>
       <c r="P74" s="2">
-        <v>45832.47524305555</v>
+        <v>45832.475243055553</v>
       </c>
       <c r="Q74">
         <v>154</v>
@@ -5542,7 +5554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5589,7 +5601,7 @@
         <v>94.58242183939501</v>
       </c>
       <c r="P75" s="2">
-        <v>45730.07196759259</v>
+        <v>45730.071967592587</v>
       </c>
       <c r="Q75">
         <v>154</v>
@@ -5610,7 +5622,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5651,13 +5663,13 @@
         <v>93</v>
       </c>
       <c r="N76">
-        <v>16.81444563598099</v>
+        <v>16.814445635980992</v>
       </c>
       <c r="O76">
-        <v>80.49857139488559</v>
+        <v>80.498571394885587</v>
       </c>
       <c r="P76" s="2">
-        <v>45715.87668981482</v>
+        <v>45715.876689814817</v>
       </c>
       <c r="Q76">
         <v>143</v>
@@ -5678,7 +5690,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5719,10 +5731,10 @@
         <v>126</v>
       </c>
       <c r="N77">
-        <v>26.94172092540721</v>
+        <v>26.941720925407211</v>
       </c>
       <c r="O77">
-        <v>77.24713773131303</v>
+        <v>77.247137731313032</v>
       </c>
       <c r="P77" s="2">
         <v>45770.11341435185</v>
@@ -5746,7 +5758,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5787,13 +5799,13 @@
         <v>169</v>
       </c>
       <c r="N78">
-        <v>35.210839735006</v>
+        <v>35.210839735005997</v>
       </c>
       <c r="O78">
-        <v>84.8837636512293</v>
+        <v>84.883763651229302</v>
       </c>
       <c r="P78" s="2">
-        <v>45738.68446759259</v>
+        <v>45738.684467592589</v>
       </c>
       <c r="Q78">
         <v>133</v>
@@ -5814,7 +5826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5855,10 +5867,10 @@
         <v>139</v>
       </c>
       <c r="N79">
-        <v>33.26492998562851</v>
+        <v>33.264929985628513</v>
       </c>
       <c r="O79">
-        <v>78.7640002796912</v>
+        <v>78.764000279691203</v>
       </c>
       <c r="P79" s="2">
         <v>45816.25644675926</v>
@@ -5882,7 +5894,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5926,10 +5938,10 @@
         <v>30.21587851952377</v>
       </c>
       <c r="O80">
-        <v>85.43115083720676</v>
+        <v>85.431150837206758</v>
       </c>
       <c r="P80" s="2">
-        <v>45834.35771990741</v>
+        <v>45834.357719907413</v>
       </c>
       <c r="Q80">
         <v>116</v>
@@ -5950,7 +5962,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5997,7 +6009,7 @@
         <v>88.46199001667091</v>
       </c>
       <c r="P81" s="2">
-        <v>45798.27791666667</v>
+        <v>45798.277916666673</v>
       </c>
       <c r="Q81">
         <v>145</v>
@@ -6018,7 +6030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6059,13 +6071,13 @@
         <v>177</v>
       </c>
       <c r="N82">
-        <v>27.28456220080386</v>
+        <v>27.284562200803862</v>
       </c>
       <c r="O82">
-        <v>87.96374553627197</v>
+        <v>87.963745536271972</v>
       </c>
       <c r="P82" s="2">
-        <v>45776.08791666666</v>
+        <v>45776.087916666656</v>
       </c>
       <c r="Q82">
         <v>127</v>
@@ -6086,7 +6098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6127,13 +6139,13 @@
         <v>126</v>
       </c>
       <c r="N83">
-        <v>15.54831886941409</v>
+        <v>15.548318869414089</v>
       </c>
       <c r="O83">
-        <v>78.86203372358352</v>
+        <v>78.862033723583522</v>
       </c>
       <c r="P83" s="2">
-        <v>45779.48109953704</v>
+        <v>45779.481099537043</v>
       </c>
       <c r="Q83">
         <v>112</v>
@@ -6154,7 +6166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6195,13 +6207,13 @@
         <v>100</v>
       </c>
       <c r="N84">
-        <v>34.30865589046907</v>
+        <v>34.308655890469069</v>
       </c>
       <c r="O84">
-        <v>72.83894584926384</v>
+        <v>72.838945849263837</v>
       </c>
       <c r="P84" s="2">
-        <v>45757.61815972222</v>
+        <v>45757.618159722217</v>
       </c>
       <c r="Q84">
         <v>137</v>
@@ -6222,7 +6234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6263,13 +6275,13 @@
         <v>153</v>
       </c>
       <c r="N85">
-        <v>27.45123704526919</v>
+        <v>27.451237045269188</v>
       </c>
       <c r="O85">
-        <v>80.48535081540402</v>
+        <v>80.485350815404018</v>
       </c>
       <c r="P85" s="2">
-        <v>45766.49236111111</v>
+        <v>45766.492361111108</v>
       </c>
       <c r="Q85">
         <v>115</v>
@@ -6290,7 +6302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6331,13 +6343,13 @@
         <v>105</v>
       </c>
       <c r="N86">
-        <v>24.25277829843276</v>
+        <v>24.252778298432759</v>
       </c>
       <c r="O86">
-        <v>72.13523017837535</v>
+        <v>72.135230178375352</v>
       </c>
       <c r="P86" s="2">
-        <v>45756.93402777778</v>
+        <v>45756.934027777781</v>
       </c>
       <c r="Q86">
         <v>153</v>
@@ -6358,7 +6370,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6399,13 +6411,13 @@
         <v>177</v>
       </c>
       <c r="N87">
-        <v>11.21869460719095</v>
+        <v>11.218694607190949</v>
       </c>
       <c r="O87">
         <v>93.81281402033045</v>
       </c>
       <c r="P87" s="2">
-        <v>45821.29576388889</v>
+        <v>45821.295763888891</v>
       </c>
       <c r="Q87">
         <v>153</v>
@@ -6426,7 +6438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6470,10 +6482,10 @@
         <v>20.96461077038634</v>
       </c>
       <c r="O88">
-        <v>78.03044636139786</v>
+        <v>78.030446361397864</v>
       </c>
       <c r="P88" s="2">
-        <v>45809.38511574074</v>
+        <v>45809.385115740741</v>
       </c>
       <c r="Q88">
         <v>130</v>
@@ -6494,7 +6506,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6538,10 +6550,10 @@
         <v>21.35038986485586</v>
       </c>
       <c r="O89">
-        <v>72.47933266947639</v>
+        <v>72.479332669476392</v>
       </c>
       <c r="P89" s="2">
-        <v>45745.32857638889</v>
+        <v>45745.328576388893</v>
       </c>
       <c r="Q89">
         <v>137</v>
@@ -6562,7 +6574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6603,13 +6615,13 @@
         <v>83</v>
       </c>
       <c r="N90">
-        <v>33.07234467615743</v>
+        <v>33.072344676157428</v>
       </c>
       <c r="O90">
-        <v>68.73798503726678</v>
+        <v>68.737985037266782</v>
       </c>
       <c r="P90" s="2">
-        <v>45791.75424768519</v>
+        <v>45791.754247685189</v>
       </c>
       <c r="Q90">
         <v>149</v>
@@ -6630,7 +6642,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6671,13 +6683,13 @@
         <v>189</v>
       </c>
       <c r="N91">
-        <v>23.85279838544587</v>
+        <v>23.852798385445869</v>
       </c>
       <c r="O91">
-        <v>86.72884920230804</v>
+        <v>86.728849202308041</v>
       </c>
       <c r="P91" s="2">
-        <v>45760.46001157408</v>
+        <v>45760.460011574083</v>
       </c>
       <c r="Q91">
         <v>110</v>
@@ -6698,7 +6710,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6739,13 +6751,13 @@
         <v>149</v>
       </c>
       <c r="N92">
-        <v>19.03161592014188</v>
+        <v>19.031615920141881</v>
       </c>
       <c r="O92">
-        <v>86.47016720618755</v>
+        <v>86.470167206187554</v>
       </c>
       <c r="P92" s="2">
-        <v>45789.40045138889</v>
+        <v>45789.400451388887</v>
       </c>
       <c r="Q92">
         <v>145</v>
@@ -6766,7 +6778,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6807,13 +6819,13 @@
         <v>175</v>
       </c>
       <c r="N93">
-        <v>36.32720952680912</v>
+        <v>36.327209526809121</v>
       </c>
       <c r="O93">
-        <v>77.87752083085746</v>
+        <v>77.877520830857463</v>
       </c>
       <c r="P93" s="2">
-        <v>45834.80166666667</v>
+        <v>45834.801666666674</v>
       </c>
       <c r="Q93">
         <v>130</v>
@@ -6834,7 +6846,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6878,10 +6890,10 @@
         <v>11.21089720646316</v>
       </c>
       <c r="O94">
-        <v>70.07964477658187</v>
+        <v>70.079644776581873</v>
       </c>
       <c r="P94" s="2">
-        <v>45689.03247685185</v>
+        <v>45689.032476851848</v>
       </c>
       <c r="Q94">
         <v>152</v>
@@ -6902,7 +6914,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6943,13 +6955,13 @@
         <v>113</v>
       </c>
       <c r="N95">
-        <v>20.25390442104639</v>
+        <v>20.253904421046389</v>
       </c>
       <c r="O95">
-        <v>79.87923795196173</v>
+        <v>79.879237951961727</v>
       </c>
       <c r="P95" s="2">
-        <v>45768.88778935185</v>
+        <v>45768.887789351851</v>
       </c>
       <c r="Q95">
         <v>144</v>
@@ -6970,7 +6982,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7011,13 +7023,13 @@
         <v>142</v>
       </c>
       <c r="N96">
-        <v>9.218715579970754</v>
+        <v>9.2187155799707536</v>
       </c>
       <c r="O96">
-        <v>77.02530735683841</v>
+        <v>77.025307356838411</v>
       </c>
       <c r="P96" s="2">
-        <v>45734.89158564815</v>
+        <v>45734.891585648147</v>
       </c>
       <c r="Q96">
         <v>122</v>
@@ -7038,7 +7050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7079,13 +7091,13 @@
         <v>114</v>
       </c>
       <c r="N97">
-        <v>29.45721950224098</v>
+        <v>29.457219502240982</v>
       </c>
       <c r="O97">
-        <v>87.63649855231527</v>
+        <v>87.636498552315274</v>
       </c>
       <c r="P97" s="2">
-        <v>45660.17327546296</v>
+        <v>45660.173275462963</v>
       </c>
       <c r="Q97">
         <v>158</v>
@@ -7106,7 +7118,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7147,13 +7159,13 @@
         <v>176</v>
       </c>
       <c r="N98">
-        <v>34.62422001377537</v>
+        <v>34.624220013775371</v>
       </c>
       <c r="O98">
-        <v>85.56759823412801</v>
+        <v>85.567598234128013</v>
       </c>
       <c r="P98" s="2">
-        <v>45660.7453587963</v>
+        <v>45660.745358796303</v>
       </c>
       <c r="Q98">
         <v>119</v>
@@ -7174,7 +7186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7218,10 +7230,10 @@
         <v>16.12108255696419</v>
       </c>
       <c r="O99">
-        <v>78.57321811772866</v>
+        <v>78.573218117728658</v>
       </c>
       <c r="P99" s="2">
-        <v>45742.37746527778</v>
+        <v>45742.377465277779</v>
       </c>
       <c r="Q99">
         <v>153</v>
@@ -7242,7 +7254,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7283,13 +7295,13 @@
         <v>151</v>
       </c>
       <c r="N100">
-        <v>32.8919086271745</v>
+        <v>32.891908627174502</v>
       </c>
       <c r="O100">
-        <v>74.31888407339471</v>
+        <v>74.318884073394713</v>
       </c>
       <c r="P100" s="2">
-        <v>45824.57994212963</v>
+        <v>45824.579942129632</v>
       </c>
       <c r="Q100">
         <v>156</v>
@@ -7310,7 +7322,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7354,10 +7366,10 @@
         <v>16.47432868339504</v>
       </c>
       <c r="O101">
-        <v>96.65304301851216</v>
+        <v>96.653043018512165</v>
       </c>
       <c r="P101" s="2">
-        <v>45691.07038194445</v>
+        <v>45691.070381944453</v>
       </c>
       <c r="Q101">
         <v>119</v>
@@ -7378,7 +7390,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7419,13 +7431,13 @@
         <v>90</v>
       </c>
       <c r="N102">
-        <v>34.41233468767354</v>
+        <v>34.412334687673543</v>
       </c>
       <c r="O102">
-        <v>81.16604701468734</v>
+        <v>81.166047014687337</v>
       </c>
       <c r="P102" s="2">
-        <v>45786.71630787037</v>
+        <v>45786.716307870367</v>
       </c>
       <c r="Q102">
         <v>155</v>
@@ -7446,7 +7458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7490,10 +7502,10 @@
         <v>29.86489520430673</v>
       </c>
       <c r="O103">
-        <v>87.95995283762687</v>
+        <v>87.959952837626872</v>
       </c>
       <c r="P103" s="2">
-        <v>45811.0484375</v>
+        <v>45811.048437500001</v>
       </c>
       <c r="Q103">
         <v>122</v>
@@ -7514,7 +7526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7555,13 +7567,13 @@
         <v>139</v>
       </c>
       <c r="N104">
-        <v>31.34229652840172</v>
+        <v>31.342296528401722</v>
       </c>
       <c r="O104">
-        <v>72.07603605977246</v>
+        <v>72.076036059772463</v>
       </c>
       <c r="P104" s="2">
-        <v>45684.32310185185</v>
+        <v>45684.323101851849</v>
       </c>
       <c r="Q104">
         <v>146</v>
@@ -7582,7 +7594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7623,13 +7635,13 @@
         <v>196</v>
       </c>
       <c r="N105">
-        <v>8.522190112413181</v>
+        <v>8.5221901124131811</v>
       </c>
       <c r="O105">
-        <v>82.08210129012254</v>
+        <v>82.082101290122537</v>
       </c>
       <c r="P105" s="2">
-        <v>45796.78730324074</v>
+        <v>45796.787303240737</v>
       </c>
       <c r="Q105">
         <v>147</v>
@@ -7650,7 +7662,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7691,13 +7703,13 @@
         <v>189</v>
       </c>
       <c r="N106">
-        <v>35.92150035514675</v>
+        <v>35.921500355146748</v>
       </c>
       <c r="O106">
-        <v>68.7985648762145</v>
+        <v>68.798564876214499</v>
       </c>
       <c r="P106" s="2">
-        <v>45773.41460648148</v>
+        <v>45773.414606481478</v>
       </c>
       <c r="Q106">
         <v>133</v>
@@ -7718,7 +7730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7765,7 +7777,7 @@
         <v>82.65819841940305</v>
       </c>
       <c r="P107" s="2">
-        <v>45666.698125</v>
+        <v>45666.698125000003</v>
       </c>
       <c r="Q107">
         <v>111</v>
@@ -7786,7 +7798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7830,10 +7842,10 @@
         <v>16.83778176619786</v>
       </c>
       <c r="O108">
-        <v>95.95650480641336</v>
+        <v>95.956504806413363</v>
       </c>
       <c r="P108" s="2">
-        <v>45753.22364583334</v>
+        <v>45753.223645833343</v>
       </c>
       <c r="Q108">
         <v>131</v>
@@ -7854,7 +7866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7895,13 +7907,13 @@
         <v>127</v>
       </c>
       <c r="N109">
-        <v>32.05244528090656</v>
+        <v>32.052445280906561</v>
       </c>
       <c r="O109">
-        <v>79.14199467658821</v>
+        <v>79.141994676588212</v>
       </c>
       <c r="P109" s="2">
-        <v>45663.94112268519</v>
+        <v>45663.941122685188</v>
       </c>
       <c r="Q109">
         <v>126</v>
@@ -7922,7 +7934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7963,13 +7975,13 @@
         <v>90</v>
       </c>
       <c r="N110">
-        <v>16.16411475403297</v>
+        <v>16.164114754032969</v>
       </c>
       <c r="O110">
         <v>69.13088436467244</v>
       </c>
       <c r="P110" s="2">
-        <v>45800.59483796296</v>
+        <v>45800.594837962963</v>
       </c>
       <c r="Q110">
         <v>145</v>
@@ -7990,7 +8002,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8013,7 +8025,7 @@
         <v>35</v>
       </c>
       <c r="H111">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="I111" t="s">
         <v>36</v>
@@ -8031,13 +8043,13 @@
         <v>151</v>
       </c>
       <c r="N111">
-        <v>33.30986134741771</v>
+        <v>33.309861347417709</v>
       </c>
       <c r="O111">
-        <v>68.89771793666097</v>
+        <v>68.897717936660968</v>
       </c>
       <c r="P111" s="2">
-        <v>45792.29193287037</v>
+        <v>45792.291932870372</v>
       </c>
       <c r="Q111">
         <v>123</v>
@@ -8058,7 +8070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8102,10 +8114,10 @@
         <v>11.26483132194617</v>
       </c>
       <c r="O112">
-        <v>79.25161603845922</v>
+        <v>79.251616038459218</v>
       </c>
       <c r="P112" s="2">
-        <v>45829.62914351852</v>
+        <v>45829.629143518519</v>
       </c>
       <c r="Q112">
         <v>119</v>
@@ -8126,7 +8138,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8167,13 +8179,13 @@
         <v>156</v>
       </c>
       <c r="N113">
-        <v>28.40689334636308</v>
+        <v>28.406893346363081</v>
       </c>
       <c r="O113">
-        <v>72.64072315743263</v>
+        <v>72.640723157432632</v>
       </c>
       <c r="P113" s="2">
-        <v>45829.34163194444</v>
+        <v>45829.341631944437</v>
       </c>
       <c r="Q113">
         <v>144</v>
@@ -8194,7 +8206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8235,13 +8247,13 @@
         <v>118</v>
       </c>
       <c r="N114">
-        <v>23.6802558227024</v>
+        <v>23.680255822702399</v>
       </c>
       <c r="O114">
-        <v>68.67721079351739</v>
+        <v>68.677210793517389</v>
       </c>
       <c r="P114" s="2">
-        <v>45795.14811342592</v>
+        <v>45795.148113425923</v>
       </c>
       <c r="Q114">
         <v>134</v>
@@ -8262,7 +8274,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8303,13 +8315,13 @@
         <v>184</v>
       </c>
       <c r="N115">
-        <v>10.79949963566778</v>
+        <v>10.799499635667781</v>
       </c>
       <c r="O115">
-        <v>89.93019480455513</v>
+        <v>89.930194804555128</v>
       </c>
       <c r="P115" s="2">
-        <v>45684.99321759259</v>
+        <v>45684.993217592593</v>
       </c>
       <c r="Q115">
         <v>112</v>
@@ -8330,7 +8342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8374,10 +8386,10 @@
         <v>15.01492101950633</v>
       </c>
       <c r="O116">
-        <v>81.29716725757483</v>
+        <v>81.297167257574827</v>
       </c>
       <c r="P116" s="2">
-        <v>45782.06061342593</v>
+        <v>45782.060613425929</v>
       </c>
       <c r="Q116">
         <v>156</v>
@@ -8398,7 +8410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8439,13 +8451,13 @@
         <v>154</v>
       </c>
       <c r="N117">
-        <v>8.359717052042129</v>
+        <v>8.3597170520421287</v>
       </c>
       <c r="O117">
-        <v>76.38809838720698</v>
+        <v>76.388098387206981</v>
       </c>
       <c r="P117" s="2">
-        <v>45716.81736111111</v>
+        <v>45716.817361111112</v>
       </c>
       <c r="Q117">
         <v>147</v>
@@ -8466,7 +8478,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8510,10 +8522,10 @@
         <v>21.59427099847067</v>
       </c>
       <c r="O118">
-        <v>94.10241230747795</v>
+        <v>94.102412307477948</v>
       </c>
       <c r="P118" s="2">
-        <v>45718.95673611111</v>
+        <v>45718.956736111111</v>
       </c>
       <c r="Q118">
         <v>126</v>
@@ -8534,7 +8546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8575,13 +8587,13 @@
         <v>186</v>
       </c>
       <c r="N119">
-        <v>16.73669256204001</v>
+        <v>16.736692562040009</v>
       </c>
       <c r="O119">
-        <v>71.36802984581524</v>
+        <v>71.368029845815244</v>
       </c>
       <c r="P119" s="2">
-        <v>45776.65821759259</v>
+        <v>45776.658217592587</v>
       </c>
       <c r="Q119">
         <v>121</v>
@@ -8602,7 +8614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8646,7 +8658,7 @@
         <v>25.35236704463501</v>
       </c>
       <c r="O120">
-        <v>95.72164603970425</v>
+        <v>95.721646039704254</v>
       </c>
       <c r="P120" s="2">
         <v>45825.66</v>
@@ -8670,7 +8682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8714,10 +8726,10 @@
         <v>16.6198964235499</v>
       </c>
       <c r="O121">
-        <v>77.10503480394323</v>
+        <v>77.105034803943227</v>
       </c>
       <c r="P121" s="2">
-        <v>45762.66240740741</v>
+        <v>45762.662407407413</v>
       </c>
       <c r="Q121">
         <v>138</v>
@@ -8738,7 +8750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8779,13 +8791,13 @@
         <v>155</v>
       </c>
       <c r="N122">
-        <v>16.69765423370256</v>
+        <v>16.697654233702561</v>
       </c>
       <c r="O122">
-        <v>93.76370649695176</v>
+        <v>93.763706496951755</v>
       </c>
       <c r="P122" s="2">
-        <v>45684.04626157408</v>
+        <v>45684.046261574083</v>
       </c>
       <c r="Q122">
         <v>152</v>
@@ -8806,7 +8818,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8847,13 +8859,13 @@
         <v>102</v>
       </c>
       <c r="N123">
-        <v>29.5526027632165</v>
+        <v>29.552602763216498</v>
       </c>
       <c r="O123">
-        <v>85.48534341790439</v>
+        <v>85.485343417904389</v>
       </c>
       <c r="P123" s="2">
-        <v>45778.23023148148</v>
+        <v>45778.230231481481</v>
       </c>
       <c r="Q123">
         <v>134</v>
@@ -8874,7 +8886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8915,13 +8927,13 @@
         <v>150</v>
       </c>
       <c r="N124">
-        <v>9.39614224337225</v>
+        <v>9.3961422433722497</v>
       </c>
       <c r="O124">
         <v>91.97451343250313</v>
       </c>
       <c r="P124" s="2">
-        <v>45778.25791666667</v>
+        <v>45778.257916666669</v>
       </c>
       <c r="Q124">
         <v>145</v>
@@ -8942,7 +8954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8983,13 +8995,13 @@
         <v>130</v>
       </c>
       <c r="N125">
-        <v>34.18395486056763</v>
+        <v>34.183954860567631</v>
       </c>
       <c r="O125">
-        <v>96.53638173310347</v>
+        <v>96.536381733103468</v>
       </c>
       <c r="P125" s="2">
-        <v>45753.97060185186</v>
+        <v>45753.970601851863</v>
       </c>
       <c r="Q125">
         <v>135</v>
@@ -9010,7 +9022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9051,13 +9063,13 @@
         <v>130</v>
       </c>
       <c r="N126">
-        <v>32.71565235734426</v>
+        <v>32.715652357344261</v>
       </c>
       <c r="O126">
-        <v>76.36375769674362</v>
+        <v>76.363757696743619</v>
       </c>
       <c r="P126" s="2">
-        <v>45774.58726851852</v>
+        <v>45774.587268518517</v>
       </c>
       <c r="Q126">
         <v>147</v>
@@ -9078,7 +9090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9122,7 +9134,7 @@
         <v>27.36633581356579</v>
       </c>
       <c r="O127">
-        <v>95.8729290768202</v>
+        <v>95.872929076820199</v>
       </c>
       <c r="P127" s="2">
         <v>45760.34983796296</v>
@@ -9146,7 +9158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9187,13 +9199,13 @@
         <v>97</v>
       </c>
       <c r="N128">
-        <v>25.20342553311415</v>
+        <v>25.203425533114149</v>
       </c>
       <c r="O128">
-        <v>79.29497495217019</v>
+        <v>79.294974952170193</v>
       </c>
       <c r="P128" s="2">
-        <v>45821.35768518518</v>
+        <v>45821.357685185183</v>
       </c>
       <c r="Q128">
         <v>129</v>
@@ -9214,7 +9226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9255,13 +9267,13 @@
         <v>112</v>
       </c>
       <c r="N129">
-        <v>33.87677244604991</v>
+        <v>33.876772446049912</v>
       </c>
       <c r="O129">
-        <v>79.17984523737074</v>
+        <v>79.179845237370742</v>
       </c>
       <c r="P129" s="2">
-        <v>45747.42546296296</v>
+        <v>45747.425462962958</v>
       </c>
       <c r="Q129">
         <v>137</v>
@@ -9282,7 +9294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9326,10 +9338,10 @@
         <v>13.37457520633272</v>
       </c>
       <c r="O130">
-        <v>77.87122602338067</v>
+        <v>77.871226023380672</v>
       </c>
       <c r="P130" s="2">
-        <v>45748.81728009259</v>
+        <v>45748.817280092589</v>
       </c>
       <c r="Q130">
         <v>125</v>
@@ -9350,7 +9362,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9394,10 +9406,10 @@
         <v>10.29010570353403</v>
       </c>
       <c r="O131">
-        <v>83.70082061307997</v>
+        <v>83.700820613079969</v>
       </c>
       <c r="P131" s="2">
-        <v>45675.04331018519</v>
+        <v>45675.043310185189</v>
       </c>
       <c r="Q131">
         <v>156</v>
@@ -9418,7 +9430,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9462,10 +9474,10 @@
         <v>14.94579492737661</v>
       </c>
       <c r="O132">
-        <v>72.47020625217613</v>
+        <v>72.470206252176126</v>
       </c>
       <c r="P132" s="2">
-        <v>45754.45425925926</v>
+        <v>45754.454259259262</v>
       </c>
       <c r="Q132">
         <v>126</v>
@@ -9486,7 +9498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9530,10 +9542,10 @@
         <v>31.04277008230552</v>
       </c>
       <c r="O133">
-        <v>84.05763307538233</v>
+        <v>84.057633075382327</v>
       </c>
       <c r="P133" s="2">
-        <v>45709.77099537037</v>
+        <v>45709.770995370367</v>
       </c>
       <c r="Q133">
         <v>149</v>
@@ -9554,7 +9566,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9595,10 +9607,10 @@
         <v>134</v>
       </c>
       <c r="N134">
-        <v>9.005437735068016</v>
+        <v>9.0054377350680159</v>
       </c>
       <c r="O134">
-        <v>83.70943955989011</v>
+        <v>83.709439559890114</v>
       </c>
       <c r="P134" s="2">
         <v>45811.30395833333</v>
@@ -9622,7 +9634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9666,10 +9678,10 @@
         <v>24.9013982174212</v>
       </c>
       <c r="O135">
-        <v>90.09515256554123</v>
+        <v>90.095152565541227</v>
       </c>
       <c r="P135" s="2">
-        <v>45664.51181712963</v>
+        <v>45664.511817129627</v>
       </c>
       <c r="Q135">
         <v>121</v>
@@ -9690,7 +9702,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9731,13 +9743,13 @@
         <v>154</v>
       </c>
       <c r="N136">
-        <v>36.86768796954799</v>
+        <v>36.867687969547987</v>
       </c>
       <c r="O136">
         <v>92.17584889618999</v>
       </c>
       <c r="P136" s="2">
-        <v>45698.85417824074</v>
+        <v>45698.854178240741</v>
       </c>
       <c r="Q136">
         <v>136</v>
@@ -9758,7 +9770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9802,10 +9814,10 @@
         <v>32.81518672128864</v>
       </c>
       <c r="O137">
-        <v>80.7727991590603</v>
+        <v>80.772799159060298</v>
       </c>
       <c r="P137" s="2">
-        <v>45713.65003472222</v>
+        <v>45713.650034722217</v>
       </c>
       <c r="Q137">
         <v>151</v>
@@ -9826,7 +9838,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9870,10 +9882,10 @@
         <v>23.12192498226409</v>
       </c>
       <c r="O138">
-        <v>76.76766423119332</v>
+        <v>76.767664231193322</v>
       </c>
       <c r="P138" s="2">
-        <v>45730.74133101852</v>
+        <v>45730.741331018522</v>
       </c>
       <c r="Q138">
         <v>156</v>
@@ -9894,7 +9906,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9935,13 +9947,13 @@
         <v>91</v>
       </c>
       <c r="N139">
-        <v>9.845586369312628</v>
+        <v>9.8455863693126275</v>
       </c>
       <c r="O139">
-        <v>75.52071202219574</v>
+        <v>75.520712022195738</v>
       </c>
       <c r="P139" s="2">
-        <v>45676.4965162037</v>
+        <v>45676.496516203697</v>
       </c>
       <c r="Q139">
         <v>139</v>
@@ -9962,7 +9974,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10003,13 +10015,13 @@
         <v>181</v>
       </c>
       <c r="N140">
-        <v>32.10983191718559</v>
+        <v>32.109831917185588</v>
       </c>
       <c r="O140">
-        <v>73.64409126444129</v>
+        <v>73.644091264441286</v>
       </c>
       <c r="P140" s="2">
-        <v>45803.63739583334</v>
+        <v>45803.637395833342</v>
       </c>
       <c r="Q140">
         <v>150</v>
@@ -10030,7 +10042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10071,13 +10083,13 @@
         <v>126</v>
       </c>
       <c r="N141">
-        <v>25.37037673713911</v>
+        <v>25.370376737139111</v>
       </c>
       <c r="O141">
         <v>69.67177988377172</v>
       </c>
       <c r="P141" s="2">
-        <v>45799.22501157408</v>
+        <v>45799.225011574083</v>
       </c>
       <c r="Q141">
         <v>143</v>
@@ -10098,7 +10110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10142,10 +10154,10 @@
         <v>11.33305691472744</v>
       </c>
       <c r="O142">
-        <v>77.93099138620668</v>
+        <v>77.930991386206685</v>
       </c>
       <c r="P142" s="2">
-        <v>45769.11315972222</v>
+        <v>45769.113159722219</v>
       </c>
       <c r="Q142">
         <v>146</v>
@@ -10166,7 +10178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10207,13 +10219,13 @@
         <v>143</v>
       </c>
       <c r="N143">
-        <v>10.72186125987733</v>
+        <v>10.721861259877331</v>
       </c>
       <c r="O143">
-        <v>75.83718307179271</v>
+        <v>75.837183071792708</v>
       </c>
       <c r="P143" s="2">
-        <v>45807.88327546296</v>
+        <v>45807.883275462962</v>
       </c>
       <c r="Q143">
         <v>115</v>
@@ -10234,7 +10246,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -10275,13 +10287,13 @@
         <v>167</v>
       </c>
       <c r="N144">
-        <v>34.37917776366118</v>
+        <v>34.379177763661183</v>
       </c>
       <c r="O144">
-        <v>96.02610419012581</v>
+        <v>96.026104190125807</v>
       </c>
       <c r="P144" s="2">
-        <v>45671.84126157407</v>
+        <v>45671.841261574067</v>
       </c>
       <c r="Q144">
         <v>116</v>
@@ -10302,7 +10314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -10343,13 +10355,13 @@
         <v>181</v>
       </c>
       <c r="N145">
-        <v>27.40680762520427</v>
+        <v>27.406807625204269</v>
       </c>
       <c r="O145">
-        <v>84.17355596125128</v>
+        <v>84.173555961251282</v>
       </c>
       <c r="P145" s="2">
-        <v>45768.47096064815</v>
+        <v>45768.470960648148</v>
       </c>
       <c r="Q145">
         <v>141</v>
@@ -10370,7 +10382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -10411,13 +10423,13 @@
         <v>194</v>
       </c>
       <c r="N146">
-        <v>32.04931718018591</v>
+        <v>32.049317180185909</v>
       </c>
       <c r="O146">
-        <v>78.07103413188472</v>
+        <v>78.071034131884716</v>
       </c>
       <c r="P146" s="2">
-        <v>45777.9413425926</v>
+        <v>45777.941342592603</v>
       </c>
       <c r="Q146">
         <v>141</v>
@@ -10438,7 +10450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10479,13 +10491,13 @@
         <v>155</v>
       </c>
       <c r="N147">
-        <v>33.49038810818575</v>
+        <v>33.490388108185748</v>
       </c>
       <c r="O147">
-        <v>84.83356042881718</v>
+        <v>84.833560428817179</v>
       </c>
       <c r="P147" s="2">
-        <v>45815.94248842593</v>
+        <v>45815.942488425928</v>
       </c>
       <c r="Q147">
         <v>134</v>
@@ -10506,7 +10518,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10531,9 +10543,6 @@
       <c r="H148">
         <v>26.6</v>
       </c>
-      <c r="I148" t="s">
-        <v>37</v>
-      </c>
       <c r="J148" t="s">
         <v>39</v>
       </c>
@@ -10547,13 +10556,13 @@
         <v>145</v>
       </c>
       <c r="N148">
-        <v>24.58139820940134</v>
+        <v>24.581398209401339</v>
       </c>
       <c r="O148">
-        <v>72.03670433902516</v>
+        <v>72.036704339025164</v>
       </c>
       <c r="P148" s="2">
-        <v>45703.11793981482</v>
+        <v>45703.117939814823</v>
       </c>
       <c r="Q148">
         <v>142</v>
@@ -10574,7 +10583,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10615,13 +10624,13 @@
         <v>157</v>
       </c>
       <c r="N149">
-        <v>23.0059442008962</v>
+        <v>23.005944200896199</v>
       </c>
       <c r="O149">
-        <v>80.87726872686389</v>
+        <v>80.877268726863889</v>
       </c>
       <c r="P149" s="2">
-        <v>45743.48765046296</v>
+        <v>45743.487650462957</v>
       </c>
       <c r="Q149">
         <v>116</v>
@@ -10642,7 +10651,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10683,13 +10692,13 @@
         <v>107</v>
       </c>
       <c r="N150">
-        <v>20.48239489930872</v>
+        <v>20.482394899308719</v>
       </c>
       <c r="O150">
-        <v>86.16079532121086</v>
+        <v>86.160795321210855</v>
       </c>
       <c r="P150" s="2">
-        <v>45697.21811342592</v>
+        <v>45697.218113425923</v>
       </c>
       <c r="Q150">
         <v>121</v>
@@ -10710,7 +10719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10751,13 +10760,13 @@
         <v>128</v>
       </c>
       <c r="N151">
-        <v>17.19145104594246</v>
+        <v>17.191451045942461</v>
       </c>
       <c r="O151">
-        <v>82.17803712198109</v>
+        <v>82.178037121981092</v>
       </c>
       <c r="P151" s="2">
-        <v>45689.74738425926</v>
+        <v>45689.747384259259</v>
       </c>
       <c r="Q151">
         <v>125</v>
@@ -10778,7 +10787,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10819,10 +10828,10 @@
         <v>168</v>
       </c>
       <c r="N152">
-        <v>20.60328286490264</v>
+        <v>20.603282864902638</v>
       </c>
       <c r="O152">
-        <v>79.6515852189754</v>
+        <v>79.651585218975399</v>
       </c>
       <c r="P152" s="2">
         <v>45795.50818287037</v>
@@ -10846,7 +10855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10887,13 +10896,13 @@
         <v>132</v>
       </c>
       <c r="N153">
-        <v>30.44251001617453</v>
+        <v>30.442510016174531</v>
       </c>
       <c r="O153">
-        <v>96.82160327809125</v>
+        <v>96.821603278091246</v>
       </c>
       <c r="P153" s="2">
-        <v>45769.89569444444</v>
+        <v>45769.895694444444</v>
       </c>
       <c r="Q153">
         <v>152</v>
@@ -10914,7 +10923,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10939,9 +10948,6 @@
       <c r="H154">
         <v>22.3</v>
       </c>
-      <c r="I154" t="s">
-        <v>38</v>
-      </c>
       <c r="J154" t="s">
         <v>39</v>
       </c>
@@ -10955,13 +10961,13 @@
         <v>118</v>
       </c>
       <c r="N154">
-        <v>25.45577949943882</v>
+        <v>25.455779499438819</v>
       </c>
       <c r="O154">
-        <v>93.52912810231888</v>
+        <v>93.529128102318879</v>
       </c>
       <c r="P154" s="2">
-        <v>45793.66881944444</v>
+        <v>45793.668819444443</v>
       </c>
       <c r="Q154">
         <v>145</v>
@@ -10982,7 +10988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -11023,13 +11029,13 @@
         <v>101</v>
       </c>
       <c r="N155">
-        <v>33.88317540869053</v>
+        <v>33.883175408690533</v>
       </c>
       <c r="O155">
-        <v>86.07877278662376</v>
+        <v>86.078772786623759</v>
       </c>
       <c r="P155" s="2">
-        <v>45752.87951388889</v>
+        <v>45752.879513888889</v>
       </c>
       <c r="Q155">
         <v>122</v>
@@ -11050,7 +11056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -11073,7 +11079,7 @@
         <v>34</v>
       </c>
       <c r="H156">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I156" t="s">
         <v>36</v>
@@ -11094,10 +11100,10 @@
         <v>20.85802041699645</v>
       </c>
       <c r="O156">
-        <v>84.5119434742862</v>
+        <v>84.511943474286198</v>
       </c>
       <c r="P156" s="2">
-        <v>45752.7052662037</v>
+        <v>45752.705266203702</v>
       </c>
       <c r="Q156">
         <v>116</v>
@@ -11118,7 +11124,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -11159,10 +11165,10 @@
         <v>89</v>
       </c>
       <c r="N157">
-        <v>25.60559778284387</v>
+        <v>25.605597782843869</v>
       </c>
       <c r="O157">
-        <v>85.99915391491294</v>
+        <v>85.999153914912938</v>
       </c>
       <c r="P157" s="2">
         <v>45751.36241898148</v>
@@ -11186,7 +11192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -11230,10 +11236,10 @@
         <v>26.30791903966767</v>
       </c>
       <c r="O158">
-        <v>73.83805112685056</v>
+        <v>73.838051126850559</v>
       </c>
       <c r="P158" s="2">
-        <v>45807.53494212963</v>
+        <v>45807.534942129627</v>
       </c>
       <c r="Q158">
         <v>156</v>
@@ -11254,7 +11260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -11295,13 +11301,13 @@
         <v>137</v>
       </c>
       <c r="N159">
-        <v>25.15921770688344</v>
+        <v>25.159217706883439</v>
       </c>
       <c r="O159">
-        <v>79.45899455466524</v>
+        <v>79.458994554665239</v>
       </c>
       <c r="P159" s="2">
-        <v>45687.90951388889</v>
+        <v>45687.909513888888</v>
       </c>
       <c r="Q159">
         <v>118</v>
@@ -11322,7 +11328,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -11363,13 +11369,13 @@
         <v>179</v>
       </c>
       <c r="N160">
-        <v>28.37637941947997</v>
+        <v>28.376379419479971</v>
       </c>
       <c r="O160">
-        <v>69.14432645383609</v>
+        <v>69.144326453836086</v>
       </c>
       <c r="P160" s="2">
-        <v>45776.01960648148</v>
+        <v>45776.019606481481</v>
       </c>
       <c r="Q160">
         <v>141</v>
@@ -11390,7 +11396,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -11431,13 +11437,13 @@
         <v>185</v>
       </c>
       <c r="N161">
-        <v>14.88557058286938</v>
+        <v>14.885570582869381</v>
       </c>
       <c r="O161">
-        <v>81.79083508711797</v>
+        <v>81.790835087117969</v>
       </c>
       <c r="P161" s="2">
-        <v>45808.32829861111</v>
+        <v>45808.328298611108</v>
       </c>
       <c r="Q161">
         <v>120</v>
@@ -11458,7 +11464,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -11499,13 +11505,13 @@
         <v>189</v>
       </c>
       <c r="N162">
-        <v>22.85854954882793</v>
+        <v>22.858549548827931</v>
       </c>
       <c r="O162">
-        <v>83.74771293477224</v>
+        <v>83.747712934772238</v>
       </c>
       <c r="P162" s="2">
-        <v>45811.40186342593</v>
+        <v>45811.401863425926</v>
       </c>
       <c r="Q162">
         <v>117</v>
@@ -11526,7 +11532,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -11567,13 +11573,13 @@
         <v>148</v>
       </c>
       <c r="N163">
-        <v>11.02251928144208</v>
+        <v>11.022519281442079</v>
       </c>
       <c r="O163">
-        <v>74.60474234699308</v>
+        <v>74.604742346993078</v>
       </c>
       <c r="P163" s="2">
-        <v>45708.49871527778</v>
+        <v>45708.498715277783</v>
       </c>
       <c r="Q163">
         <v>142</v>
@@ -11594,7 +11600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -11635,13 +11641,13 @@
         <v>185</v>
       </c>
       <c r="N164">
-        <v>19.15082850169956</v>
+        <v>19.150828501699561</v>
       </c>
       <c r="O164">
-        <v>95.9568365677999</v>
+        <v>95.956836567799897</v>
       </c>
       <c r="P164" s="2">
-        <v>45830.27545138889</v>
+        <v>45830.275451388887</v>
       </c>
       <c r="Q164">
         <v>132</v>
@@ -11662,7 +11668,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -11703,13 +11709,13 @@
         <v>161</v>
       </c>
       <c r="N165">
-        <v>22.14234499001667</v>
+        <v>22.142344990016671</v>
       </c>
       <c r="O165">
-        <v>94.37418371718002</v>
+        <v>94.374183717180017</v>
       </c>
       <c r="P165" s="2">
-        <v>45690.38334490741</v>
+        <v>45690.383344907408</v>
       </c>
       <c r="Q165">
         <v>134</v>
@@ -11730,7 +11736,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -11771,13 +11777,13 @@
         <v>83</v>
       </c>
       <c r="N166">
-        <v>26.9145035268187</v>
+        <v>26.914503526818699</v>
       </c>
       <c r="O166">
-        <v>88.94215382822127</v>
+        <v>88.942153828221265</v>
       </c>
       <c r="P166" s="2">
-        <v>45805.71701388889</v>
+        <v>45805.717013888891</v>
       </c>
       <c r="Q166">
         <v>117</v>
@@ -11798,7 +11804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -11839,10 +11845,10 @@
         <v>194</v>
       </c>
       <c r="N167">
-        <v>35.5654005249999</v>
+        <v>35.565400524999902</v>
       </c>
       <c r="O167">
-        <v>83.46821223419552</v>
+        <v>83.468212234195519</v>
       </c>
       <c r="P167" s="2">
         <v>45834.51048611111</v>
@@ -11866,7 +11872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -11889,7 +11895,7 @@
         <v>35</v>
       </c>
       <c r="H168">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I168" t="s">
         <v>36</v>
@@ -11907,13 +11913,13 @@
         <v>127</v>
       </c>
       <c r="N168">
-        <v>25.41888092990232</v>
+        <v>25.418880929902318</v>
       </c>
       <c r="O168">
-        <v>93.22910562978286</v>
+        <v>93.229105629782865</v>
       </c>
       <c r="P168" s="2">
-        <v>45758.20564814815</v>
+        <v>45758.205648148149</v>
       </c>
       <c r="Q168">
         <v>131</v>
@@ -11934,7 +11940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -11978,7 +11984,7 @@
         <v>29.56422356912023</v>
       </c>
       <c r="O169">
-        <v>71.78891797088042</v>
+        <v>71.788917970880419</v>
       </c>
       <c r="P169" s="2">
         <v>45784.83494212963</v>
@@ -12002,7 +12008,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -12043,13 +12049,13 @@
         <v>95</v>
       </c>
       <c r="N170">
-        <v>22.68171572536088</v>
+        <v>22.681715725360881</v>
       </c>
       <c r="O170">
-        <v>90.92478403397166</v>
+        <v>90.924784033971662</v>
       </c>
       <c r="P170" s="2">
-        <v>45663.11462962963</v>
+        <v>45663.114629629628</v>
       </c>
       <c r="Q170">
         <v>149</v>
@@ -12070,7 +12076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -12111,13 +12117,13 @@
         <v>182</v>
       </c>
       <c r="N171">
-        <v>26.38901690991361</v>
+        <v>26.389016909913611</v>
       </c>
       <c r="O171">
-        <v>71.6198036050386</v>
+        <v>71.619803605038598</v>
       </c>
       <c r="P171" s="2">
-        <v>45716.68534722222</v>
+        <v>45716.685347222221</v>
       </c>
       <c r="Q171">
         <v>112</v>
@@ -12138,7 +12144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -12182,10 +12188,10 @@
         <v>10.05703426787943</v>
       </c>
       <c r="O172">
-        <v>91.03210921393276</v>
+        <v>91.032109213932756</v>
       </c>
       <c r="P172" s="2">
-        <v>45716.94435185185</v>
+        <v>45716.944351851853</v>
       </c>
       <c r="Q172">
         <v>138</v>
@@ -12206,7 +12212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:22">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -12247,13 +12253,13 @@
         <v>113</v>
       </c>
       <c r="N173">
-        <v>15.37735584441356</v>
+        <v>15.377355844413559</v>
       </c>
       <c r="O173">
-        <v>75.99725947928935</v>
+        <v>75.997259479289355</v>
       </c>
       <c r="P173" s="2">
-        <v>45664.69590277778</v>
+        <v>45664.695902777778</v>
       </c>
       <c r="Q173">
         <v>150</v>
@@ -12274,7 +12280,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -12315,13 +12321,13 @@
         <v>166</v>
       </c>
       <c r="N174">
-        <v>18.49373970294902</v>
+        <v>18.493739702949021</v>
       </c>
       <c r="O174">
         <v>93.43562684952748</v>
       </c>
       <c r="P174" s="2">
-        <v>45734.53018518518</v>
+        <v>45734.530185185176</v>
       </c>
       <c r="Q174">
         <v>138</v>
@@ -12342,7 +12348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -12383,13 +12389,13 @@
         <v>111</v>
       </c>
       <c r="N175">
-        <v>21.70230729518889</v>
+        <v>21.702307295188891</v>
       </c>
       <c r="O175">
-        <v>95.37722072093653</v>
+        <v>95.377220720936535</v>
       </c>
       <c r="P175" s="2">
-        <v>45822.8710300926</v>
+        <v>45822.871030092603</v>
       </c>
       <c r="Q175">
         <v>143</v>
@@ -12410,7 +12416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="176" spans="1:22">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -12451,13 +12457,13 @@
         <v>75</v>
       </c>
       <c r="N176">
-        <v>9.323813619569128</v>
+        <v>9.3238136195691279</v>
       </c>
       <c r="O176">
-        <v>72.31508311274835</v>
+        <v>72.315083112748354</v>
       </c>
       <c r="P176" s="2">
-        <v>45745.82032407408</v>
+        <v>45745.820324074077</v>
       </c>
       <c r="Q176">
         <v>143</v>
@@ -12478,7 +12484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="1:22">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -12522,10 +12528,10 @@
         <v>12.06069882904621</v>
       </c>
       <c r="O177">
-        <v>81.41759254689642</v>
+        <v>81.417592546896415</v>
       </c>
       <c r="P177" s="2">
-        <v>45667.69204861111</v>
+        <v>45667.692048611112</v>
       </c>
       <c r="Q177">
         <v>137</v>
@@ -12546,7 +12552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -12587,13 +12593,13 @@
         <v>158</v>
       </c>
       <c r="N178">
-        <v>16.02761492594787</v>
+        <v>16.027614925947869</v>
       </c>
       <c r="O178">
-        <v>96.44863396671786</v>
+        <v>96.448633966717864</v>
       </c>
       <c r="P178" s="2">
-        <v>45793.81146990741</v>
+        <v>45793.811469907407</v>
       </c>
       <c r="Q178">
         <v>122</v>
@@ -12614,7 +12620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="179" spans="1:22">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -12655,10 +12661,10 @@
         <v>192</v>
       </c>
       <c r="N179">
-        <v>36.17444803613047</v>
+        <v>36.174448036130471</v>
       </c>
       <c r="O179">
-        <v>82.01881564322125</v>
+        <v>82.018815643221245</v>
       </c>
       <c r="P179" s="2">
         <v>45717.42759259259</v>
@@ -12682,7 +12688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="180" spans="1:22">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -12726,10 +12732,10 @@
         <v>17.60906320598847</v>
       </c>
       <c r="O180">
-        <v>93.04287815292182</v>
+        <v>93.042878152921816</v>
       </c>
       <c r="P180" s="2">
-        <v>45667.42618055556</v>
+        <v>45667.426180555558</v>
       </c>
       <c r="Q180">
         <v>132</v>
@@ -12750,7 +12756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="181" spans="1:22">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -12791,13 +12797,13 @@
         <v>80</v>
       </c>
       <c r="N181">
-        <v>21.97919068525039</v>
+        <v>21.979190685250391</v>
       </c>
       <c r="O181">
-        <v>85.07321414180828</v>
+        <v>85.073214141808279</v>
       </c>
       <c r="P181" s="2">
-        <v>45719.40545138889</v>
+        <v>45719.405451388891</v>
       </c>
       <c r="Q181">
         <v>153</v>
@@ -12818,7 +12824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="182" spans="1:22">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -12859,13 +12865,13 @@
         <v>81</v>
       </c>
       <c r="N182">
-        <v>13.6868336694134</v>
+        <v>13.686833669413399</v>
       </c>
       <c r="O182">
-        <v>78.88456732966846</v>
+        <v>78.884567329668457</v>
       </c>
       <c r="P182" s="2">
-        <v>45827.06427083333</v>
+        <v>45827.064270833333</v>
       </c>
       <c r="Q182">
         <v>135</v>
@@ -12886,7 +12892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -12930,10 +12936,10 @@
         <v>25.71262206119728</v>
       </c>
       <c r="O183">
-        <v>76.28772311025024</v>
+        <v>76.287723110250241</v>
       </c>
       <c r="P183" s="2">
-        <v>45763.59711805556</v>
+        <v>45763.597118055557</v>
       </c>
       <c r="Q183">
         <v>113</v>
@@ -12954,7 +12960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -12998,10 +13004,10 @@
         <v>16.13981324996325</v>
       </c>
       <c r="O184">
-        <v>73.89346964149654</v>
+        <v>73.893469641496537</v>
       </c>
       <c r="P184" s="2">
-        <v>45684.19709490741</v>
+        <v>45684.197094907409</v>
       </c>
       <c r="Q184">
         <v>135</v>
@@ -13022,7 +13028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:22">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -13045,7 +13051,7 @@
         <v>35</v>
       </c>
       <c r="H185">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="I185" t="s">
         <v>37</v>
@@ -13066,10 +13072,10 @@
         <v>14.00278477471438</v>
       </c>
       <c r="O185">
-        <v>90.09214754995321</v>
+        <v>90.092147549953211</v>
       </c>
       <c r="P185" s="2">
-        <v>45694.29412037037</v>
+        <v>45694.294120370367</v>
       </c>
       <c r="Q185">
         <v>149</v>
@@ -13090,7 +13096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="186" spans="1:22">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -13131,13 +13137,13 @@
         <v>154</v>
       </c>
       <c r="N186">
-        <v>22.98060622493339</v>
+        <v>22.980606224933389</v>
       </c>
       <c r="O186">
-        <v>79.20967469786781</v>
+        <v>79.209674697867811</v>
       </c>
       <c r="P186" s="2">
-        <v>45804.57086805555</v>
+        <v>45804.570868055547</v>
       </c>
       <c r="Q186">
         <v>118</v>
@@ -13158,7 +13164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="1:22">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -13199,13 +13205,13 @@
         <v>141</v>
       </c>
       <c r="N187">
-        <v>8.159668175652204</v>
+        <v>8.1596681756522038</v>
       </c>
       <c r="O187">
-        <v>82.82698840382179</v>
+        <v>82.826988403821787</v>
       </c>
       <c r="P187" s="2">
-        <v>45788.38064814815</v>
+        <v>45788.380648148152</v>
       </c>
       <c r="Q187">
         <v>114</v>
@@ -13226,7 +13232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="188" spans="1:22">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -13267,10 +13273,10 @@
         <v>124</v>
       </c>
       <c r="N188">
-        <v>8.222256946827535</v>
+        <v>8.2222569468275353</v>
       </c>
       <c r="O188">
-        <v>82.27743892003427</v>
+        <v>82.277438920034271</v>
       </c>
       <c r="P188" s="2">
         <v>45692.01258101852</v>
@@ -13294,7 +13300,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="189" spans="1:22">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -13335,13 +13341,13 @@
         <v>116</v>
       </c>
       <c r="N189">
-        <v>14.35299546395387</v>
+        <v>14.352995463953871</v>
       </c>
       <c r="O189">
-        <v>84.7410918477608</v>
+        <v>84.741091847760799</v>
       </c>
       <c r="P189" s="2">
-        <v>45717.64623842593</v>
+        <v>45717.646238425928</v>
       </c>
       <c r="Q189">
         <v>129</v>
@@ -13362,7 +13368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="1:22">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -13403,13 +13409,13 @@
         <v>173</v>
       </c>
       <c r="N190">
-        <v>9.064919512523813</v>
+        <v>9.0649195125238133</v>
       </c>
       <c r="O190">
-        <v>93.10173722311201</v>
+        <v>93.101737223112011</v>
       </c>
       <c r="P190" s="2">
-        <v>45674.39863425926</v>
+        <v>45674.398634259262</v>
       </c>
       <c r="Q190">
         <v>159</v>
@@ -13430,7 +13436,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="191" spans="1:22">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -13471,13 +13477,13 @@
         <v>111</v>
       </c>
       <c r="N191">
-        <v>11.13274686979005</v>
+        <v>11.132746869790051</v>
       </c>
       <c r="O191">
-        <v>96.44144096391945</v>
+        <v>96.441440963919447</v>
       </c>
       <c r="P191" s="2">
-        <v>45782.0725</v>
+        <v>45782.072500000002</v>
       </c>
       <c r="Q191">
         <v>120</v>
@@ -13498,7 +13504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:22">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -13539,10 +13545,10 @@
         <v>129</v>
       </c>
       <c r="N192">
-        <v>17.8269588308238</v>
+        <v>17.826958830823799</v>
       </c>
       <c r="O192">
-        <v>79.81994204864068</v>
+        <v>79.819942048640684</v>
       </c>
       <c r="P192" s="2">
         <v>45700.69703703704</v>
@@ -13566,7 +13572,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="193" spans="1:22">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -13607,13 +13613,13 @@
         <v>81</v>
       </c>
       <c r="N193">
-        <v>31.27498470781457</v>
+        <v>31.274984707814571</v>
       </c>
       <c r="O193">
-        <v>91.99804874108278</v>
+        <v>91.998048741082783</v>
       </c>
       <c r="P193" s="2">
-        <v>45708.88715277778</v>
+        <v>45708.887152777781</v>
       </c>
       <c r="Q193">
         <v>141</v>
@@ -13634,7 +13640,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="194" spans="1:22">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -13678,10 +13684,10 @@
         <v>24.58941065770972</v>
       </c>
       <c r="O194">
-        <v>90.17130604498681</v>
+        <v>90.171306044986807</v>
       </c>
       <c r="P194" s="2">
-        <v>45700.85206018519</v>
+        <v>45700.852060185192</v>
       </c>
       <c r="Q194">
         <v>137</v>
@@ -13702,7 +13708,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="195" spans="1:22">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -13743,13 +13749,13 @@
         <v>76</v>
       </c>
       <c r="N195">
-        <v>22.86736405273608</v>
+        <v>22.867364052736079</v>
       </c>
       <c r="O195">
-        <v>84.63233959221162</v>
+        <v>84.632339592211622</v>
       </c>
       <c r="P195" s="2">
-        <v>45781.49787037037</v>
+        <v>45781.497870370367</v>
       </c>
       <c r="Q195">
         <v>131</v>
@@ -13770,7 +13776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" spans="1:22">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -13814,10 +13820,10 @@
         <v>16.51117587303553</v>
       </c>
       <c r="O196">
-        <v>95.72536716474606</v>
+        <v>95.725367164746061</v>
       </c>
       <c r="P196" s="2">
-        <v>45800.57659722222</v>
+        <v>45800.576597222222</v>
       </c>
       <c r="Q196">
         <v>150</v>
@@ -13838,7 +13844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="197" spans="1:22">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -13861,7 +13867,7 @@
         <v>34</v>
       </c>
       <c r="H197">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="I197" t="s">
         <v>38</v>
@@ -13879,13 +13885,13 @@
         <v>178</v>
       </c>
       <c r="N197">
-        <v>35.02085786355168</v>
+        <v>35.020857863551683</v>
       </c>
       <c r="O197">
-        <v>73.81376095032368</v>
+        <v>73.813760950323683</v>
       </c>
       <c r="P197" s="2">
-        <v>45820.39001157408</v>
+        <v>45820.390011574083</v>
       </c>
       <c r="Q197">
         <v>126</v>
@@ -13906,7 +13912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" spans="1:22">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -13947,13 +13953,13 @@
         <v>72</v>
       </c>
       <c r="N198">
-        <v>19.51343619587856</v>
+        <v>19.513436195878558</v>
       </c>
       <c r="O198">
-        <v>71.16866209897903</v>
+        <v>71.168662098979027</v>
       </c>
       <c r="P198" s="2">
-        <v>45700.15012731482</v>
+        <v>45700.150127314817</v>
       </c>
       <c r="Q198">
         <v>135</v>
@@ -13974,7 +13980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:22">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -14018,10 +14024,10 @@
         <v>10.52569023707737</v>
       </c>
       <c r="O199">
-        <v>92.76489704170724</v>
+        <v>92.764897041707243</v>
       </c>
       <c r="P199" s="2">
-        <v>45732.39929398148</v>
+        <v>45732.399293981478</v>
       </c>
       <c r="Q199">
         <v>153</v>
@@ -14042,7 +14048,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="200" spans="1:22">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -14083,13 +14089,13 @@
         <v>183</v>
       </c>
       <c r="N200">
-        <v>25.89492896741624</v>
+        <v>25.894928967416242</v>
       </c>
       <c r="O200">
-        <v>80.7353446823787</v>
+        <v>80.735344682378695</v>
       </c>
       <c r="P200" s="2">
-        <v>45705.21575231481</v>
+        <v>45705.215752314813</v>
       </c>
       <c r="Q200">
         <v>116</v>
@@ -14110,7 +14116,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="201" spans="1:22">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -14151,13 +14157,13 @@
         <v>176</v>
       </c>
       <c r="N201">
-        <v>11.30131341082144</v>
+        <v>11.301313410821439</v>
       </c>
       <c r="O201">
         <v>92.56209677200475</v>
       </c>
       <c r="P201" s="2">
-        <v>45719.9957175926</v>
+        <v>45719.995717592603</v>
       </c>
       <c r="Q201">
         <v>151</v>
